--- a/INACAPestadisticaSede/rect/01_Arica.xlsx
+++ b/INACAPestadisticaSede/rect/01_Arica.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\INACAPestadisticaSede\rect\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A74BA17-75BB-47EF-AE9A-938B967D5F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="EstabporTipoEmision" sheetId="1" r:id="rId1"/>
-    <sheet name="EstabporRubroTipoEmision" sheetId="2" r:id="rId2"/>
-    <sheet name="DetalleEstablecimientos" sheetId="3" r:id="rId3"/>
+    <sheet name="INICIO" sheetId="4" r:id="rId1"/>
+    <sheet name="EstabporTipoEmision" sheetId="1" r:id="rId2"/>
+    <sheet name="EstabporRubroTipoEmision" sheetId="2" r:id="rId3"/>
+    <sheet name="DetalleEstablecimientos" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3022" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3039" uniqueCount="505">
   <si>
     <t>Comuna</t>
   </si>
@@ -1498,13 +1505,46 @@
   </si>
   <si>
     <t>BODEGA ALCERRECA</t>
+  </si>
+  <si>
+    <t>Seleccione alguna de las celdas coloreadas para ver los detalles. Puede regresar a esta página haciendo click en la celda INICIO dispuesta en cada tabla detallada.</t>
+  </si>
+  <si>
+    <t>Niveles</t>
+  </si>
+  <si>
+    <t>Vínculo</t>
+  </si>
+  <si>
+    <t>Establecimientos</t>
+  </si>
+  <si>
+    <t>Tipo de Emisión</t>
+  </si>
+  <si>
+    <t>Detalle</t>
+  </si>
+  <si>
+    <t>EstabporTipoEmision</t>
+  </si>
+  <si>
+    <t>EstabporRubroTipoEmision</t>
+  </si>
+  <si>
+    <t>DetalleEstablecimientos</t>
+  </si>
+  <si>
+    <t>Detalle de Bases de Datos de Establecimientos Generadores de Emisiones 2021 [MMA-RETC]</t>
+  </si>
+  <si>
+    <t>INICIO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1520,16 +1560,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1552,26 +1633,143 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Entrada" xfId="1" builtinId="20"/>
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{50882C52-82A2-4297-8811-591E675AAC80}"/>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1613,7 +1811,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1645,9 +1843,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1679,6 +1895,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1854,553 +2088,369 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEA2095-EC0E-459B-885D-39AFD12476A9}">
+  <dimension ref="B1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>15</v>
-      </c>
-      <c r="E5">
-        <v>16</v>
-      </c>
-      <c r="F5">
-        <v>37</v>
-      </c>
-      <c r="G5">
-        <v>42</v>
-      </c>
-      <c r="H5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>18</v>
-      </c>
-      <c r="E7">
-        <v>7</v>
-      </c>
-      <c r="F7">
-        <v>14</v>
-      </c>
-      <c r="G7">
-        <v>15</v>
-      </c>
-      <c r="H7">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9">
-        <v>30</v>
-      </c>
-      <c r="D9">
-        <v>29</v>
-      </c>
-      <c r="E9">
-        <v>27</v>
-      </c>
-      <c r="F9">
-        <v>23</v>
-      </c>
-      <c r="G9">
-        <v>13</v>
-      </c>
-      <c r="H9">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
-      <c r="H11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="2:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="12" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="12" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="12" t="s">
+        <v>502</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:E4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F5" location="EstabporTipoEmision!A1" display="EstabporTipoEmision" xr:uid="{28EB47A2-412D-4715-BCBB-081CAFD0A9C5}"/>
+    <hyperlink ref="F6" location="EstabporRubroTipoEmision!A1" display="EstabporRubroTipoEmision" xr:uid="{BA42D410-377D-4671-96B0-3F0A19FFC121}"/>
+    <hyperlink ref="F7" location="DetalleEstablecimientos!A1" display="DetalleEstablecimientos" xr:uid="{F9038588-35A7-488C-9E5C-9828C1D40033}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
         <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
       <c r="H2">
         <v>4</v>
       </c>
-      <c r="I2">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3">
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>37</v>
+      </c>
+      <c r="G5">
+        <v>42</v>
+      </c>
+      <c r="H5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7">
         <v>14</v>
       </c>
-      <c r="D4">
+      <c r="G7">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="I4">
+      <c r="H8">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>29</v>
+      </c>
+      <c r="E9">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <v>23</v>
+      </c>
+      <c r="G9">
+        <v>13</v>
+      </c>
+      <c r="H9">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
-      <c r="I5">
+      <c r="H10">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
         <v>1</v>
       </c>
-      <c r="H6">
-        <v>6</v>
-      </c>
-      <c r="I6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12">
+      <c r="D12">
         <v>1</v>
       </c>
       <c r="H12">
         <v>2</v>
       </c>
-      <c r="I12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
         <v>17</v>
       </c>
       <c r="F13">
@@ -2409,1156 +2459,60 @@
       <c r="H13">
         <v>1</v>
       </c>
-      <c r="I13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
-      <c r="I14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15">
-        <v>6</v>
-      </c>
-      <c r="I15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>3</v>
-      </c>
-      <c r="I17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-      <c r="I22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>3</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>3</v>
-      </c>
-      <c r="H26">
-        <v>2</v>
-      </c>
-      <c r="I26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27">
-        <v>2</v>
-      </c>
-      <c r="H27">
-        <v>2</v>
-      </c>
-      <c r="I27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>4</v>
-      </c>
-      <c r="G29">
-        <v>7</v>
-      </c>
-      <c r="H29">
-        <v>9</v>
-      </c>
-      <c r="I29">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30">
-        <v>9</v>
-      </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-      <c r="G30">
-        <v>4</v>
-      </c>
-      <c r="H30">
-        <v>3</v>
-      </c>
-      <c r="I30">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31">
-        <v>7</v>
-      </c>
-      <c r="E31">
-        <v>15</v>
-      </c>
-      <c r="F31">
-        <v>6</v>
-      </c>
-      <c r="G31">
-        <v>3</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>2</v>
-      </c>
-      <c r="I33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>7</v>
-      </c>
-      <c r="G34">
-        <v>6</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="I36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="I39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40">
-        <v>3</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41">
-        <v>3</v>
-      </c>
-      <c r="I41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42">
-        <v>6</v>
-      </c>
-      <c r="E42">
-        <v>6</v>
-      </c>
-      <c r="F42">
-        <v>3</v>
-      </c>
-      <c r="G42">
-        <v>3</v>
-      </c>
-      <c r="H42">
-        <v>3</v>
-      </c>
-      <c r="I42">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43">
-        <v>6</v>
-      </c>
-      <c r="E43">
-        <v>4</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>2</v>
-      </c>
-      <c r="I43">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44">
-        <v>10</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>2</v>
-      </c>
-      <c r="G44">
-        <v>2</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="I44">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45">
-        <v>2</v>
-      </c>
-      <c r="G45">
-        <v>5</v>
-      </c>
-      <c r="H45">
-        <v>3</v>
-      </c>
-      <c r="I45">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46">
-        <v>2</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47">
-        <v>2</v>
-      </c>
-      <c r="I47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48">
-        <v>2</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>4</v>
-      </c>
-      <c r="H48">
-        <v>2</v>
-      </c>
-      <c r="I48">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49">
-        <v>5</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" t="s">
-        <v>36</v>
-      </c>
-      <c r="C50" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="I50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" t="s">
-        <v>36</v>
-      </c>
-      <c r="C51" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="I51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>2</v>
-      </c>
-      <c r="I52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" t="s">
-        <v>37</v>
-      </c>
-      <c r="C53" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="I53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" t="s">
-        <v>37</v>
-      </c>
-      <c r="C54" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54">
-        <v>2</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="I54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" t="s">
-        <v>38</v>
-      </c>
-      <c r="C55" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55">
-        <v>4</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-      <c r="I55">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" t="s">
-        <v>38</v>
-      </c>
-      <c r="C56" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56">
-        <v>2</v>
-      </c>
-      <c r="H56">
-        <v>3</v>
-      </c>
-      <c r="I56">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" t="s">
-        <v>38</v>
-      </c>
-      <c r="C57" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57">
-        <v>3</v>
-      </c>
-      <c r="E57">
-        <v>4</v>
-      </c>
-      <c r="F57">
-        <v>3</v>
-      </c>
-      <c r="G57">
-        <v>4</v>
-      </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-      <c r="I57">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58" t="s">
-        <v>30</v>
-      </c>
-      <c r="C58" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58">
-        <v>4</v>
-      </c>
-      <c r="I58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" t="s">
-        <v>9</v>
-      </c>
-      <c r="B59" t="s">
-        <v>37</v>
-      </c>
-      <c r="C59" t="s">
-        <v>15</v>
-      </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B60" t="s">
-        <v>30</v>
-      </c>
-      <c r="C60" t="s">
-        <v>19</v>
-      </c>
-      <c r="F60">
-        <v>3</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="I60">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B61" t="s">
-        <v>32</v>
-      </c>
-      <c r="C61" t="s">
-        <v>15</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B62" t="s">
-        <v>32</v>
-      </c>
-      <c r="C62" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B63" t="s">
-        <v>32</v>
-      </c>
-      <c r="C63" t="s">
-        <v>19</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B64" t="s">
-        <v>37</v>
-      </c>
-      <c r="C64" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="I64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B65" t="s">
-        <v>37</v>
-      </c>
-      <c r="C65" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" t="s">
-        <v>11</v>
-      </c>
-      <c r="B66" t="s">
-        <v>30</v>
-      </c>
-      <c r="C66" t="s">
-        <v>19</v>
-      </c>
-      <c r="H66">
-        <v>2</v>
-      </c>
-      <c r="I66">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K1" location="INICIO!A1" display="INICIO" xr:uid="{589A9993-88E1-4798-AF8E-0030FE548066}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H348"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3566,6 +2520,1416 @@
         <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>7</v>
+      </c>
+      <c r="H29">
+        <v>9</v>
+      </c>
+      <c r="I29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>9</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="E31">
+        <v>15</v>
+      </c>
+      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>7</v>
+      </c>
+      <c r="G34">
+        <v>6</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44">
+        <v>10</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>5</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>5</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="I52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <v>3</v>
+      </c>
+      <c r="I56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>4</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+      <c r="G57">
+        <v>4</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58">
+        <v>4</v>
+      </c>
+      <c r="I58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60">
+        <v>3</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" t="s">
+        <v>19</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66">
+        <v>2</v>
+      </c>
+      <c r="I66">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K1" location="INICIO!A1" display="INICIO" xr:uid="{87974D01-C961-40B4-913B-02940D74C8E7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K348"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -3583,8 +3947,11 @@
       <c r="H1" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="K1" s="13" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3610,7 +3977,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3636,7 +4003,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3662,7 +4029,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3688,7 +4055,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -3714,7 +4081,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3740,7 +4107,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3766,7 +4133,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3792,7 +4159,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3818,7 +4185,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3844,7 +4211,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -3870,7 +4237,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -3896,7 +4263,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -3922,7 +4289,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -3948,7 +4315,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -3974,7 +4341,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -4000,7 +4367,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -4026,7 +4393,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -4052,7 +4419,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -4078,7 +4445,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -4104,7 +4471,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -4130,7 +4497,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -4156,7 +4523,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -4182,7 +4549,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -4208,7 +4575,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -4234,7 +4601,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -4260,7 +4627,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -4286,7 +4653,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -4312,7 +4679,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -4338,7 +4705,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -4364,7 +4731,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -4390,7 +4757,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -4416,7 +4783,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -4442,7 +4809,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -4468,7 +4835,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -4494,7 +4861,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -4520,7 +4887,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -4546,7 +4913,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -4572,7 +4939,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -4598,7 +4965,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -4624,7 +4991,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -4650,7 +5017,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -4676,7 +5043,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -4702,7 +5069,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -4728,7 +5095,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -4754,7 +5121,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -4780,7 +5147,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -4806,7 +5173,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -4832,7 +5199,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -4858,7 +5225,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -4884,7 +5251,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -4910,7 +5277,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -4936,7 +5303,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -4962,7 +5329,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -4988,7 +5355,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -5014,7 +5381,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -5040,7 +5407,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -5066,7 +5433,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -5092,7 +5459,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -5118,7 +5485,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -5144,7 +5511,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -5170,7 +5537,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -5196,7 +5563,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -5222,7 +5589,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -5248,7 +5615,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -5274,7 +5641,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -5300,7 +5667,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -5326,7 +5693,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -5352,7 +5719,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -5378,7 +5745,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -5404,7 +5771,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -5430,7 +5797,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -5456,7 +5823,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -5482,7 +5849,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -5508,7 +5875,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -5534,7 +5901,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -5560,7 +5927,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -5586,7 +5953,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -5612,7 +5979,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -5638,7 +6005,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -5664,7 +6031,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -5690,7 +6057,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -5716,7 +6083,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -5742,7 +6109,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -5768,7 +6135,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -5794,7 +6161,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -5820,7 +6187,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -5846,7 +6213,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -5872,7 +6239,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -5898,7 +6265,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -5924,7 +6291,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -5950,7 +6317,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -5976,7 +6343,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -6002,7 +6369,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -6028,7 +6395,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -6054,7 +6421,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>8</v>
       </c>
@@ -6080,7 +6447,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -6106,7 +6473,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -6132,7 +6499,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -6158,7 +6525,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -6184,7 +6551,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -6210,7 +6577,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>8</v>
       </c>
@@ -6236,7 +6603,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>8</v>
       </c>
@@ -6262,7 +6629,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -6288,7 +6655,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -6314,7 +6681,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -6340,7 +6707,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>8</v>
       </c>
@@ -6366,7 +6733,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>8</v>
       </c>
@@ -6392,7 +6759,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>8</v>
       </c>
@@ -6418,7 +6785,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>8</v>
       </c>
@@ -6444,7 +6811,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -6470,7 +6837,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>8</v>
       </c>
@@ -6496,7 +6863,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>8</v>
       </c>
@@ -6522,7 +6889,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>8</v>
       </c>
@@ -6548,7 +6915,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -6574,7 +6941,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>8</v>
       </c>
@@ -6600,7 +6967,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -6626,7 +6993,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>8</v>
       </c>
@@ -6652,7 +7019,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>8</v>
       </c>
@@ -6678,7 +7045,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>8</v>
       </c>
@@ -6704,7 +7071,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>8</v>
       </c>
@@ -6730,7 +7097,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>8</v>
       </c>
@@ -6756,7 +7123,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>8</v>
       </c>
@@ -6782,7 +7149,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -6808,7 +7175,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>8</v>
       </c>
@@ -6834,7 +7201,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>8</v>
       </c>
@@ -6860,7 +7227,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -6886,7 +7253,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>8</v>
       </c>
@@ -6912,7 +7279,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>8</v>
       </c>
@@ -6938,7 +7305,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -6964,7 +7331,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -6990,7 +7357,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>8</v>
       </c>
@@ -7016,7 +7383,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>8</v>
       </c>
@@ -7042,7 +7409,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>8</v>
       </c>
@@ -7068,7 +7435,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>8</v>
       </c>
@@ -7094,7 +7461,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>8</v>
       </c>
@@ -7120,7 +7487,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -7146,7 +7513,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -7172,7 +7539,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>8</v>
       </c>
@@ -7198,7 +7565,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>8</v>
       </c>
@@ -7224,7 +7591,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>8</v>
       </c>
@@ -7250,7 +7617,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>8</v>
       </c>
@@ -7276,7 +7643,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>8</v>
       </c>
@@ -7302,7 +7669,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>8</v>
       </c>
@@ -7328,7 +7695,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>8</v>
       </c>
@@ -7354,7 +7721,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>8</v>
       </c>
@@ -7380,7 +7747,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>8</v>
       </c>
@@ -7406,7 +7773,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>8</v>
       </c>
@@ -7432,7 +7799,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>8</v>
       </c>
@@ -7458,7 +7825,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>8</v>
       </c>
@@ -7484,7 +7851,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>8</v>
       </c>
@@ -7510,7 +7877,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>8</v>
       </c>
@@ -7536,7 +7903,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>8</v>
       </c>
@@ -7562,7 +7929,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>8</v>
       </c>
@@ -7588,7 +7955,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>8</v>
       </c>
@@ -7614,7 +7981,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>8</v>
       </c>
@@ -7640,7 +8007,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>8</v>
       </c>
@@ -7666,7 +8033,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>8</v>
       </c>
@@ -7692,7 +8059,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>8</v>
       </c>
@@ -7718,7 +8085,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>8</v>
       </c>
@@ -7744,7 +8111,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>8</v>
       </c>
@@ -7770,7 +8137,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>8</v>
       </c>
@@ -7796,7 +8163,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>8</v>
       </c>
@@ -7822,7 +8189,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>8</v>
       </c>
@@ -7848,7 +8215,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>8</v>
       </c>
@@ -7874,7 +8241,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>8</v>
       </c>
@@ -7900,7 +8267,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>8</v>
       </c>
@@ -7926,7 +8293,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>8</v>
       </c>
@@ -7952,7 +8319,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>8</v>
       </c>
@@ -7978,7 +8345,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>8</v>
       </c>
@@ -8004,7 +8371,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>8</v>
       </c>
@@ -8030,7 +8397,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>8</v>
       </c>
@@ -8056,7 +8423,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>8</v>
       </c>
@@ -8082,7 +8449,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>8</v>
       </c>
@@ -8108,7 +8475,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>8</v>
       </c>
@@ -8134,7 +8501,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>8</v>
       </c>
@@ -8160,7 +8527,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>8</v>
       </c>
@@ -8186,7 +8553,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>8</v>
       </c>
@@ -8212,7 +8579,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>8</v>
       </c>
@@ -8238,7 +8605,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>8</v>
       </c>
@@ -8264,7 +8631,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>8</v>
       </c>
@@ -8290,7 +8657,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>8</v>
       </c>
@@ -8316,7 +8683,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>8</v>
       </c>
@@ -8342,7 +8709,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>8</v>
       </c>
@@ -8368,7 +8735,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>8</v>
       </c>
@@ -8394,7 +8761,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>8</v>
       </c>
@@ -8420,7 +8787,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>8</v>
       </c>
@@ -8446,7 +8813,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>8</v>
       </c>
@@ -8472,7 +8839,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>8</v>
       </c>
@@ -8498,7 +8865,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>8</v>
       </c>
@@ -8524,7 +8891,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>8</v>
       </c>
@@ -8550,7 +8917,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>8</v>
       </c>
@@ -8576,7 +8943,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>8</v>
       </c>
@@ -8602,7 +8969,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>8</v>
       </c>
@@ -8628,7 +8995,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>8</v>
       </c>
@@ -8654,7 +9021,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>8</v>
       </c>
@@ -8680,7 +9047,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>8</v>
       </c>
@@ -8706,7 +9073,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>8</v>
       </c>
@@ -8732,7 +9099,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>8</v>
       </c>
@@ -8758,7 +9125,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>8</v>
       </c>
@@ -8784,7 +9151,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>8</v>
       </c>
@@ -8810,7 +9177,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>8</v>
       </c>
@@ -8836,7 +9203,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>8</v>
       </c>
@@ -8862,7 +9229,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>8</v>
       </c>
@@ -8888,7 +9255,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>8</v>
       </c>
@@ -8914,7 +9281,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>8</v>
       </c>
@@ -8940,7 +9307,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>8</v>
       </c>
@@ -8966,7 +9333,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>8</v>
       </c>
@@ -8992,7 +9359,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>8</v>
       </c>
@@ -9018,7 +9385,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>8</v>
       </c>
@@ -9044,7 +9411,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>8</v>
       </c>
@@ -9070,7 +9437,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>8</v>
       </c>
@@ -9096,7 +9463,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>8</v>
       </c>
@@ -9122,7 +9489,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>8</v>
       </c>
@@ -9148,7 +9515,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>8</v>
       </c>
@@ -9174,7 +9541,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>8</v>
       </c>
@@ -9200,7 +9567,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>8</v>
       </c>
@@ -9226,7 +9593,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>8</v>
       </c>
@@ -9252,7 +9619,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>8</v>
       </c>
@@ -9278,7 +9645,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>8</v>
       </c>
@@ -9304,7 +9671,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>8</v>
       </c>
@@ -9330,7 +9697,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>8</v>
       </c>
@@ -9356,7 +9723,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>8</v>
       </c>
@@ -9382,7 +9749,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>8</v>
       </c>
@@ -9408,7 +9775,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>8</v>
       </c>
@@ -9434,7 +9801,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>8</v>
       </c>
@@ -9460,7 +9827,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>8</v>
       </c>
@@ -9486,7 +9853,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>8</v>
       </c>
@@ -9512,7 +9879,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>8</v>
       </c>
@@ -9538,7 +9905,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>8</v>
       </c>
@@ -9564,7 +9931,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>8</v>
       </c>
@@ -9590,7 +9957,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>8</v>
       </c>
@@ -9616,7 +9983,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>8</v>
       </c>
@@ -9642,7 +10009,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>8</v>
       </c>
@@ -9668,7 +10035,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>8</v>
       </c>
@@ -9694,7 +10061,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>8</v>
       </c>
@@ -9720,7 +10087,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>8</v>
       </c>
@@ -9746,7 +10113,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>8</v>
       </c>
@@ -9772,7 +10139,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>8</v>
       </c>
@@ -9798,7 +10165,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>8</v>
       </c>
@@ -9824,7 +10191,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>8</v>
       </c>
@@ -9850,7 +10217,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>8</v>
       </c>
@@ -9876,7 +10243,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>8</v>
       </c>
@@ -9902,7 +10269,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>8</v>
       </c>
@@ -9928,7 +10295,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>8</v>
       </c>
@@ -9954,7 +10321,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>8</v>
       </c>
@@ -9980,7 +10347,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>8</v>
       </c>
@@ -10006,7 +10373,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>8</v>
       </c>
@@ -10032,7 +10399,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>8</v>
       </c>
@@ -10058,7 +10425,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>8</v>
       </c>
@@ -10084,7 +10451,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>8</v>
       </c>
@@ -10110,7 +10477,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>8</v>
       </c>
@@ -10136,7 +10503,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>8</v>
       </c>
@@ -10162,7 +10529,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>8</v>
       </c>
@@ -10188,7 +10555,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>8</v>
       </c>
@@ -10214,7 +10581,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>8</v>
       </c>
@@ -10240,7 +10607,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>8</v>
       </c>
@@ -10266,7 +10633,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>8</v>
       </c>
@@ -10292,7 +10659,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>8</v>
       </c>
@@ -10318,7 +10685,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>8</v>
       </c>
@@ -10344,7 +10711,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>8</v>
       </c>
@@ -10370,7 +10737,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>8</v>
       </c>
@@ -10396,7 +10763,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>8</v>
       </c>
@@ -10422,7 +10789,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>8</v>
       </c>
@@ -10448,7 +10815,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>8</v>
       </c>
@@ -10474,7 +10841,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>8</v>
       </c>
@@ -10500,7 +10867,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>8</v>
       </c>
@@ -10526,7 +10893,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>8</v>
       </c>
@@ -10552,7 +10919,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>8</v>
       </c>
@@ -10578,7 +10945,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>8</v>
       </c>
@@ -10604,7 +10971,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>8</v>
       </c>
@@ -10630,7 +10997,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>8</v>
       </c>
@@ -10656,7 +11023,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>8</v>
       </c>
@@ -10682,7 +11049,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>8</v>
       </c>
@@ -10708,7 +11075,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>8</v>
       </c>
@@ -10734,7 +11101,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>8</v>
       </c>
@@ -10760,7 +11127,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>8</v>
       </c>
@@ -10786,7 +11153,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>8</v>
       </c>
@@ -10812,7 +11179,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>8</v>
       </c>
@@ -10838,7 +11205,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>8</v>
       </c>
@@ -10864,7 +11231,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>8</v>
       </c>
@@ -10890,7 +11257,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>8</v>
       </c>
@@ -10916,7 +11283,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>8</v>
       </c>
@@ -10942,7 +11309,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>8</v>
       </c>
@@ -10968,7 +11335,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>8</v>
       </c>
@@ -10994,7 +11361,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>8</v>
       </c>
@@ -11020,7 +11387,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>8</v>
       </c>
@@ -11046,7 +11413,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>8</v>
       </c>
@@ -11072,7 +11439,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>8</v>
       </c>
@@ -11098,7 +11465,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>8</v>
       </c>
@@ -11124,7 +11491,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>8</v>
       </c>
@@ -11150,7 +11517,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>8</v>
       </c>
@@ -11176,7 +11543,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>8</v>
       </c>
@@ -11202,7 +11569,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>8</v>
       </c>
@@ -11228,7 +11595,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>8</v>
       </c>
@@ -11254,7 +11621,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>8</v>
       </c>
@@ -11280,7 +11647,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>8</v>
       </c>
@@ -11306,7 +11673,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>8</v>
       </c>
@@ -11332,7 +11699,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>8</v>
       </c>
@@ -11358,7 +11725,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>8</v>
       </c>
@@ -11384,7 +11751,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>8</v>
       </c>
@@ -11410,7 +11777,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>8</v>
       </c>
@@ -11436,7 +11803,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>8</v>
       </c>
@@ -11462,7 +11829,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>8</v>
       </c>
@@ -11488,7 +11855,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>8</v>
       </c>
@@ -11514,7 +11881,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>8</v>
       </c>
@@ -11540,7 +11907,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>8</v>
       </c>
@@ -11566,7 +11933,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>8</v>
       </c>
@@ -11592,7 +11959,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>8</v>
       </c>
@@ -11618,7 +11985,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>8</v>
       </c>
@@ -11644,7 +12011,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>8</v>
       </c>
@@ -11670,7 +12037,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>8</v>
       </c>
@@ -11696,7 +12063,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>8</v>
       </c>
@@ -11722,7 +12089,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>8</v>
       </c>
@@ -11748,7 +12115,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>8</v>
       </c>
@@ -11774,7 +12141,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>8</v>
       </c>
@@ -11800,7 +12167,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>8</v>
       </c>
@@ -11826,7 +12193,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>8</v>
       </c>
@@ -11852,7 +12219,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>8</v>
       </c>
@@ -11878,7 +12245,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>8</v>
       </c>
@@ -11904,7 +12271,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>8</v>
       </c>
@@ -11930,7 +12297,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>8</v>
       </c>
@@ -11956,7 +12323,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>8</v>
       </c>
@@ -11982,7 +12349,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>8</v>
       </c>
@@ -12008,7 +12375,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>8</v>
       </c>
@@ -12034,7 +12401,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>8</v>
       </c>
@@ -12060,7 +12427,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>8</v>
       </c>
@@ -12086,7 +12453,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>8</v>
       </c>
@@ -12112,7 +12479,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>8</v>
       </c>
@@ -12138,7 +12505,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>8</v>
       </c>
@@ -12164,7 +12531,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>8</v>
       </c>
@@ -12190,7 +12557,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>9</v>
       </c>
@@ -12216,7 +12583,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>9</v>
       </c>
@@ -12242,7 +12609,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>9</v>
       </c>
@@ -12268,7 +12635,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>9</v>
       </c>
@@ -12294,7 +12661,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>9</v>
       </c>
@@ -12320,7 +12687,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>10</v>
       </c>
@@ -12346,7 +12713,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>10</v>
       </c>
@@ -12372,7 +12739,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>10</v>
       </c>
@@ -12398,7 +12765,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>10</v>
       </c>
@@ -12424,7 +12791,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>10</v>
       </c>
@@ -12450,7 +12817,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>10</v>
       </c>
@@ -12476,7 +12843,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>10</v>
       </c>
@@ -12502,7 +12869,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>10</v>
       </c>
@@ -12528,7 +12895,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>10</v>
       </c>
@@ -12554,7 +12921,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>11</v>
       </c>
@@ -12580,7 +12947,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>11</v>
       </c>
@@ -12607,6 +12974,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K1" location="INICIO!A1" display="INICIO" xr:uid="{227F1237-E266-4C7C-B928-7E5B65A0429D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/INACAPestadisticaSede/rect/01_Arica.xlsx
+++ b/INACAPestadisticaSede/rect/01_Arica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\INACAPestadisticaSede\rect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A74BA17-75BB-47EF-AE9A-938B967D5F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289BC63E-33CC-4C9C-9A2D-8364FA7F04B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1711,20 +1711,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1738,14 +1726,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2105,82 +2105,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="2:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="3" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="12" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="12" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="7" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="12" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7" t="s">
         <v>502</v>
       </c>
     </row>
@@ -2208,6 +2208,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -2234,7 +2237,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="8" t="s">
         <v>504</v>
       </c>
     </row>
@@ -2507,7 +2510,7 @@
   <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2540,7 +2543,7 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="8" t="s">
         <v>504</v>
       </c>
     </row>
@@ -3947,7 +3950,7 @@
       <c r="H1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="8" t="s">
         <v>504</v>
       </c>
     </row>
